--- a/www/ig/fhir/annuaire/1.1.0-snapshot/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/1.1.0-snapshot/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot</t>
+    <t>1.1.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-10T13:17:34+00:00</t>
+    <t>2024-07-11T15:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/1.1.0-snapshot/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
+++ b/www/ig/fhir/annuaire/1.1.0-snapshot/StructureDefinition-as-dp-healthcareservice-healthcare-activity.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-2</t>
+    <t>1.1.0-snapshot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T15:51:10+00:00</t>
+    <t>2024-07-10T13:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
